--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書_B10102P_顧客詳細取得応答電文_(JSON).xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書_B10102P_顧客詳細取得応答電文_(JSON).xlsx
@@ -31,430 +31,6 @@
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="Q7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">インタフェースの授受相手先を記述する。外部機関名称、部署名、システム名など
-同一のファイルを複数の相手先に送る場合、「相手先」欄に複数記述する。
-例）ＸＸ１システム、ＸＸ２システム
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>機能名称を記入する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェースのファイルID/電文IDを記述する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェースの利用目的・概要を記述する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>ファイルが作成される条件を記述する。
-対象データが0件の場合も合わせて作成条件欄に記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSON形式では記載不要。
-インタフェースの授受媒体を選択する。
-「その他」の場合は詳細を記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSON形式では「階層構造(JSON形式)」固定
-インタフェースのデータ形式を選択する。
-「その他」の場合は、詳細を記述する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>階層構造（JSON形式）固定。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>伝送の場合は、伝送方式を記述する。
-その他の場合は、媒体送付方法を記述する
-例1）伝送ファイルの場合　「FTP」または「HULFT」　　
-例2）MT/FD/MOの場合　「オフラインMTサーバ」</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSON形式では記載不要。
-フィールド区切りの識別文字を記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェースの暗号化有無を選択する。
-暗号化は下記３パターンを想定している。
-３パターンのいずれかで暗号化するのであれば　暗号化「有り」にチェックをいれて、実施する暗号化の詳細を記載する。
-・通信暗号化：通信経路の暗号化(HTTPS、SFTP等)
-・ファイル暗号化：ファイル全体を暗号化
-・項目暗号化：特定の項目のみを暗号化</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSON形式では記載不要。
-インタフェースの改行コードを選択する。
-「その他」の場合は、詳細を記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェースの文字コードを記述する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSON形式では記載不要。
-インタフェースの改行コードを選択する。
-「その他」の場合は、詳細を記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェースを入出力する処理サイクルを記述する。
-括弧内には、詳細を記述する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>記載が必要だが特定の項目がない場合、特記事項欄に記述する。例）標準値以外の文字設定など</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="B9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSONの場合はレコード名に1件のみ記述する。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="A5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">レコード構成シートに記述されたレコード種類ごとに、１シート作成する。JSONの場合はレコードが1種類なので1シートのみでよい。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェース項目を識別するためのID。
-数値のみでないこと。
-また、レコード種類ごとに一意になるIDをつけること。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>項目のバリデーション仕様をドメイン定義と紐付けるための名称。ドメイン定義の「ドメイン名(論理)」と一致させること。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>入力インタフェースの場合は
-必須項目であれば"○"を記入する。
-出力インタフェースの場合は
-必ず値をセットする項目であれば
-"○"を記入する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">対象項目の繰り返し回数を設定する.   
- ①繰り返し回数が固定の場合は、固定値を記述  
- 　例）　1  
- 　　　　※多重度を未記入の場合は、1と同等に扱う  
- ②繰り返し回数が可変の場合は、最小値と最大値を記述  
- 　例）　1..5 (上限ありの場合)  
- 　　　　 1..* (上限なしの場合)  
-          0..1（必須でない項目の場合）  
-  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">値が設定されなかった場合に設定するデフォルト値がある場合は記入する。 
-固定値を設定する場合もこの欄に記入する。 
-文字列項目の場合はダブルコーテーションで括って記述し、数値項目の場合はダブルコーテーションで括らず記述する。 
- 例)文字列項目の場合："1"　数値項目の場合：9999
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>フォーマット編集が必要な場合に記入する。
-入力インタフェースの場合は受け取り可能なフォーマットを記述する。
-出力インタフェースの場合はどのようなフォーマットに編集するかを記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>データ構造が複雑な場合、視覚的に理解しやすくする目的で記載する。
-この項目は必須ではない。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2663,6 +2239,120 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2681,15 +2371,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2726,110 +2407,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2858,15 +2449,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2895,13 +2480,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2912,6 +2497,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2921,104 +2596,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3029,20 +2689,152 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3053,9 +2845,6 @@
     <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3065,237 +2854,66 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3308,50 +2926,8 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6895,155 +6471,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="243" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="249" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="289" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="246" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-      <c r="R1" s="291"/>
-      <c r="S1" s="255" t="s">
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="290" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="286" t="s">
+      <c r="T1" s="291"/>
+      <c r="U1" s="291"/>
+      <c r="V1" s="291"/>
+      <c r="W1" s="291"/>
+      <c r="X1" s="291"/>
+      <c r="Y1" s="291"/>
+      <c r="Z1" s="292"/>
+      <c r="AA1" s="243" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="288"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="281" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="246">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="284">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="248"/>
+      <c r="AH1" s="285"/>
+      <c r="AI1" s="286"/>
       <c r="AK1" s="66"/>
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
       <c r="AN1" s="67"/>
     </row>
     <row r="2" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="249" t="s">
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="293"/>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="294"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="286" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="293"/>
+      <c r="T2" s="294"/>
+      <c r="U2" s="294"/>
+      <c r="V2" s="294"/>
+      <c r="W2" s="294"/>
+      <c r="X2" s="294"/>
+      <c r="Y2" s="294"/>
+      <c r="Z2" s="295"/>
+      <c r="AA2" s="243" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="288"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="287" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="246" t="str">
+      <c r="AD2" s="288"/>
+      <c r="AE2" s="288"/>
+      <c r="AF2" s="289"/>
+      <c r="AG2" s="284" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248"/>
+      <c r="AH2" s="285"/>
+      <c r="AI2" s="286"/>
       <c r="AK2" s="66"/>
       <c r="AL2" s="66"/>
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
     </row>
     <row r="3" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="286" t="s">
+      <c r="A3" s="243" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="298" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="255" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="295"/>
-      <c r="P3" s="296"/>
-      <c r="Q3" s="296"/>
-      <c r="R3" s="297"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="286"/>
-      <c r="AB3" s="288"/>
-      <c r="AC3" s="243"/>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="246"/>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="297"/>
+      <c r="U3" s="297"/>
+      <c r="V3" s="297"/>
+      <c r="W3" s="297"/>
+      <c r="X3" s="297"/>
+      <c r="Y3" s="297"/>
+      <c r="Z3" s="298"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="281"/>
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="284"/>
+      <c r="AH3" s="285"/>
+      <c r="AI3" s="286"/>
       <c r="AK3" s="66"/>
       <c r="AL3" s="66"/>
       <c r="AM3" s="66"/>
@@ -7090,98 +6666,98 @@
       <c r="A7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="264" t="s">
+      <c r="B7" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="266"/>
-      <c r="D7" s="264" t="s">
+      <c r="C7" s="270"/>
+      <c r="D7" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="264" t="s">
+      <c r="E7" s="269"/>
+      <c r="F7" s="270"/>
+      <c r="G7" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="265"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="285" t="s">
+      <c r="H7" s="269"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="280" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="265"/>
-      <c r="L7" s="265"/>
-      <c r="M7" s="265"/>
-      <c r="N7" s="265"/>
-      <c r="O7" s="265"/>
-      <c r="P7" s="266"/>
-      <c r="Q7" s="264" t="s">
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="269"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="268" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="265"/>
-      <c r="S7" s="265"/>
-      <c r="T7" s="265"/>
-      <c r="U7" s="265"/>
-      <c r="V7" s="265"/>
-      <c r="W7" s="265"/>
-      <c r="X7" s="265"/>
-      <c r="Y7" s="265"/>
-      <c r="Z7" s="265"/>
-      <c r="AA7" s="265"/>
-      <c r="AB7" s="265"/>
-      <c r="AC7" s="265"/>
-      <c r="AD7" s="265"/>
-      <c r="AE7" s="266"/>
-      <c r="AF7" s="264" t="s">
+      <c r="R7" s="269"/>
+      <c r="S7" s="269"/>
+      <c r="T7" s="269"/>
+      <c r="U7" s="269"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="265"/>
-      <c r="AH7" s="265"/>
-      <c r="AI7" s="266"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="270"/>
       <c r="AJ7" s="59"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="167">
         <v>1</v>
       </c>
-      <c r="B8" s="276" t="s">
+      <c r="B8" s="271" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="277"/>
-      <c r="D8" s="278">
+      <c r="C8" s="272"/>
+      <c r="D8" s="273">
         <v>43718</v>
       </c>
-      <c r="E8" s="279"/>
-      <c r="F8" s="280"/>
-      <c r="G8" s="276" t="s">
+      <c r="E8" s="274"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="271" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="281"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="282" t="s">
+      <c r="H8" s="276"/>
+      <c r="I8" s="272"/>
+      <c r="J8" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="283"/>
-      <c r="L8" s="283"/>
-      <c r="M8" s="283"/>
-      <c r="N8" s="283"/>
-      <c r="O8" s="283"/>
-      <c r="P8" s="284"/>
-      <c r="Q8" s="282" t="s">
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="278"/>
+      <c r="N8" s="278"/>
+      <c r="O8" s="278"/>
+      <c r="P8" s="279"/>
+      <c r="Q8" s="277" t="s">
         <v>88</v>
       </c>
-      <c r="R8" s="283"/>
-      <c r="S8" s="283"/>
-      <c r="T8" s="283"/>
-      <c r="U8" s="283"/>
-      <c r="V8" s="283"/>
-      <c r="W8" s="283"/>
-      <c r="X8" s="283"/>
-      <c r="Y8" s="283"/>
-      <c r="Z8" s="283"/>
-      <c r="AA8" s="283"/>
-      <c r="AB8" s="283"/>
-      <c r="AC8" s="283"/>
-      <c r="AD8" s="283"/>
-      <c r="AE8" s="284"/>
+      <c r="R8" s="278"/>
+      <c r="S8" s="278"/>
+      <c r="T8" s="278"/>
+      <c r="U8" s="278"/>
+      <c r="V8" s="278"/>
+      <c r="W8" s="278"/>
+      <c r="X8" s="278"/>
+      <c r="Y8" s="278"/>
+      <c r="Z8" s="278"/>
+      <c r="AA8" s="278"/>
+      <c r="AB8" s="278"/>
+      <c r="AC8" s="278"/>
+      <c r="AD8" s="278"/>
+      <c r="AE8" s="279"/>
       <c r="AF8" s="131" t="s">
         <v>89</v>
       </c>
@@ -7192,36 +6768,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="168"/>
-      <c r="B9" s="267"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="270"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="272"/>
-      <c r="I9" s="268"/>
-      <c r="J9" s="273"/>
-      <c r="K9" s="274"/>
-      <c r="L9" s="274"/>
-      <c r="M9" s="274"/>
-      <c r="N9" s="274"/>
-      <c r="O9" s="274"/>
-      <c r="P9" s="275"/>
-      <c r="Q9" s="273"/>
-      <c r="R9" s="274"/>
-      <c r="S9" s="274"/>
-      <c r="T9" s="274"/>
-      <c r="U9" s="274"/>
-      <c r="V9" s="274"/>
-      <c r="W9" s="274"/>
-      <c r="X9" s="274"/>
-      <c r="Y9" s="274"/>
-      <c r="Z9" s="274"/>
-      <c r="AA9" s="274"/>
-      <c r="AB9" s="274"/>
-      <c r="AC9" s="274"/>
-      <c r="AD9" s="274"/>
-      <c r="AE9" s="275"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="259"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="266"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="266"/>
+      <c r="O9" s="266"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="266"/>
+      <c r="S9" s="266"/>
+      <c r="T9" s="266"/>
+      <c r="U9" s="266"/>
+      <c r="V9" s="266"/>
+      <c r="W9" s="266"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
+      <c r="AD9" s="266"/>
+      <c r="AE9" s="267"/>
       <c r="AF9" s="62"/>
       <c r="AG9" s="128"/>
       <c r="AH9" s="128"/>
@@ -7230,36 +6806,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="168"/>
-      <c r="B10" s="267"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="271"/>
-      <c r="G10" s="267"/>
-      <c r="H10" s="272"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="273"/>
-      <c r="K10" s="274"/>
-      <c r="L10" s="274"/>
-      <c r="M10" s="274"/>
-      <c r="N10" s="274"/>
-      <c r="O10" s="274"/>
-      <c r="P10" s="275"/>
-      <c r="Q10" s="273"/>
-      <c r="R10" s="274"/>
-      <c r="S10" s="274"/>
-      <c r="T10" s="274"/>
-      <c r="U10" s="274"/>
-      <c r="V10" s="274"/>
-      <c r="W10" s="274"/>
-      <c r="X10" s="274"/>
-      <c r="Y10" s="274"/>
-      <c r="Z10" s="274"/>
-      <c r="AA10" s="274"/>
-      <c r="AB10" s="274"/>
-      <c r="AC10" s="274"/>
-      <c r="AD10" s="274"/>
-      <c r="AE10" s="275"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="265"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="266"/>
+      <c r="M10" s="266"/>
+      <c r="N10" s="266"/>
+      <c r="O10" s="266"/>
+      <c r="P10" s="267"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="266"/>
+      <c r="S10" s="266"/>
+      <c r="T10" s="266"/>
+      <c r="U10" s="266"/>
+      <c r="V10" s="266"/>
+      <c r="W10" s="266"/>
+      <c r="X10" s="266"/>
+      <c r="Y10" s="266"/>
+      <c r="Z10" s="266"/>
+      <c r="AA10" s="266"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
+      <c r="AD10" s="266"/>
+      <c r="AE10" s="267"/>
       <c r="AF10" s="62"/>
       <c r="AG10" s="128"/>
       <c r="AH10" s="128"/>
@@ -7267,36 +6843,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="168"/>
-      <c r="B11" s="267"/>
-      <c r="C11" s="268"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="271"/>
-      <c r="G11" s="267"/>
-      <c r="H11" s="272"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="273"/>
-      <c r="K11" s="274"/>
-      <c r="L11" s="274"/>
-      <c r="M11" s="274"/>
-      <c r="N11" s="274"/>
-      <c r="O11" s="274"/>
-      <c r="P11" s="275"/>
-      <c r="Q11" s="273"/>
-      <c r="R11" s="274"/>
-      <c r="S11" s="274"/>
-      <c r="T11" s="274"/>
-      <c r="U11" s="274"/>
-      <c r="V11" s="274"/>
-      <c r="W11" s="274"/>
-      <c r="X11" s="274"/>
-      <c r="Y11" s="274"/>
-      <c r="Z11" s="274"/>
-      <c r="AA11" s="274"/>
-      <c r="AB11" s="274"/>
-      <c r="AC11" s="274"/>
-      <c r="AD11" s="274"/>
-      <c r="AE11" s="275"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="265"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
+      <c r="M11" s="266"/>
+      <c r="N11" s="266"/>
+      <c r="O11" s="266"/>
+      <c r="P11" s="267"/>
+      <c r="Q11" s="265"/>
+      <c r="R11" s="266"/>
+      <c r="S11" s="266"/>
+      <c r="T11" s="266"/>
+      <c r="U11" s="266"/>
+      <c r="V11" s="266"/>
+      <c r="W11" s="266"/>
+      <c r="X11" s="266"/>
+      <c r="Y11" s="266"/>
+      <c r="Z11" s="266"/>
+      <c r="AA11" s="266"/>
+      <c r="AB11" s="266"/>
+      <c r="AC11" s="266"/>
+      <c r="AD11" s="266"/>
+      <c r="AE11" s="267"/>
       <c r="AF11" s="62"/>
       <c r="AG11" s="128"/>
       <c r="AH11" s="128"/>
@@ -7304,36 +6880,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="168"/>
-      <c r="B12" s="267"/>
-      <c r="C12" s="268"/>
-      <c r="D12" s="269"/>
-      <c r="E12" s="270"/>
-      <c r="F12" s="271"/>
-      <c r="G12" s="267"/>
-      <c r="H12" s="272"/>
-      <c r="I12" s="268"/>
-      <c r="J12" s="273"/>
-      <c r="K12" s="274"/>
-      <c r="L12" s="274"/>
-      <c r="M12" s="274"/>
-      <c r="N12" s="274"/>
-      <c r="O12" s="274"/>
-      <c r="P12" s="275"/>
-      <c r="Q12" s="273"/>
-      <c r="R12" s="274"/>
-      <c r="S12" s="274"/>
-      <c r="T12" s="274"/>
-      <c r="U12" s="274"/>
-      <c r="V12" s="274"/>
-      <c r="W12" s="274"/>
-      <c r="X12" s="274"/>
-      <c r="Y12" s="274"/>
-      <c r="Z12" s="274"/>
-      <c r="AA12" s="274"/>
-      <c r="AB12" s="274"/>
-      <c r="AC12" s="274"/>
-      <c r="AD12" s="274"/>
-      <c r="AE12" s="275"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="264"/>
+      <c r="I12" s="260"/>
+      <c r="J12" s="265"/>
+      <c r="K12" s="266"/>
+      <c r="L12" s="266"/>
+      <c r="M12" s="266"/>
+      <c r="N12" s="266"/>
+      <c r="O12" s="266"/>
+      <c r="P12" s="267"/>
+      <c r="Q12" s="265"/>
+      <c r="R12" s="266"/>
+      <c r="S12" s="266"/>
+      <c r="T12" s="266"/>
+      <c r="U12" s="266"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="266"/>
+      <c r="X12" s="266"/>
+      <c r="Y12" s="266"/>
+      <c r="Z12" s="266"/>
+      <c r="AA12" s="266"/>
+      <c r="AB12" s="266"/>
+      <c r="AC12" s="266"/>
+      <c r="AD12" s="266"/>
+      <c r="AE12" s="267"/>
       <c r="AF12" s="62"/>
       <c r="AG12" s="128"/>
       <c r="AH12" s="128"/>
@@ -7341,36 +6917,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="267"/>
-      <c r="C13" s="268"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="271"/>
-      <c r="G13" s="267"/>
-      <c r="H13" s="272"/>
-      <c r="I13" s="268"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="274"/>
-      <c r="L13" s="274"/>
-      <c r="M13" s="274"/>
-      <c r="N13" s="274"/>
-      <c r="O13" s="274"/>
-      <c r="P13" s="275"/>
-      <c r="Q13" s="273"/>
-      <c r="R13" s="274"/>
-      <c r="S13" s="274"/>
-      <c r="T13" s="274"/>
-      <c r="U13" s="274"/>
-      <c r="V13" s="274"/>
-      <c r="W13" s="274"/>
-      <c r="X13" s="274"/>
-      <c r="Y13" s="274"/>
-      <c r="Z13" s="274"/>
-      <c r="AA13" s="274"/>
-      <c r="AB13" s="274"/>
-      <c r="AC13" s="274"/>
-      <c r="AD13" s="274"/>
-      <c r="AE13" s="275"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="264"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="265"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="266"/>
+      <c r="M13" s="266"/>
+      <c r="N13" s="266"/>
+      <c r="O13" s="266"/>
+      <c r="P13" s="267"/>
+      <c r="Q13" s="265"/>
+      <c r="R13" s="266"/>
+      <c r="S13" s="266"/>
+      <c r="T13" s="266"/>
+      <c r="U13" s="266"/>
+      <c r="V13" s="266"/>
+      <c r="W13" s="266"/>
+      <c r="X13" s="266"/>
+      <c r="Y13" s="266"/>
+      <c r="Z13" s="266"/>
+      <c r="AA13" s="266"/>
+      <c r="AB13" s="266"/>
+      <c r="AC13" s="266"/>
+      <c r="AD13" s="266"/>
+      <c r="AE13" s="267"/>
       <c r="AF13" s="62"/>
       <c r="AG13" s="128"/>
       <c r="AH13" s="128"/>
@@ -8118,35 +7694,14 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -8163,14 +7718,35 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <printOptions horizontalCentered="1"/>
@@ -8327,158 +7903,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="249" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="314" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="320">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="299">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="321"/>
-      <c r="AI1" s="322"/>
+      <c r="AH1" s="300"/>
+      <c r="AI1" s="301"/>
     </row>
     <row r="2" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="249" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="320" t="str">
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="321"/>
-      <c r="AI2" s="322"/>
+      <c r="AH2" s="300"/>
+      <c r="AI2" s="301"/>
     </row>
     <row r="3" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="249" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="320" t="str">
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="321"/>
-      <c r="AI3" s="322"/>
+      <c r="AH3" s="300"/>
+      <c r="AI3" s="301"/>
     </row>
     <row r="4" spans="1:35" s="68" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="66"/>
@@ -9911,13 +9487,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9928,6 +9497,13 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <printOptions horizontalCentered="1"/>
@@ -9954,158 +9530,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="249" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="314" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="359">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="323">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="360"/>
-      <c r="AI1" s="361"/>
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="325"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="249" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="359" t="str">
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="360"/>
-      <c r="AI2" s="361"/>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="325"/>
     </row>
     <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="249" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="359" t="str">
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="360"/>
-      <c r="AI3" s="361"/>
+      <c r="AH3" s="324"/>
+      <c r="AI3" s="325"/>
     </row>
     <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="39"/>
@@ -10193,12 +9769,12 @@
       <c r="AI6" s="74"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="323" t="s">
+      <c r="A7" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="332"/>
-      <c r="C7" s="332"/>
-      <c r="D7" s="333"/>
+      <c r="B7" s="333"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="334"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -10211,82 +9787,82 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="334" t="s">
+      <c r="Q7" s="353" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="335"/>
-      <c r="S7" s="335"/>
-      <c r="T7" s="336"/>
-      <c r="U7" s="326" t="s">
+      <c r="R7" s="354"/>
+      <c r="S7" s="354"/>
+      <c r="T7" s="355"/>
+      <c r="U7" s="359" t="s">
         <v>104</v>
       </c>
-      <c r="V7" s="327"/>
-      <c r="W7" s="327"/>
-      <c r="X7" s="327"/>
-      <c r="Y7" s="327"/>
-      <c r="Z7" s="327"/>
-      <c r="AA7" s="327"/>
-      <c r="AB7" s="327"/>
-      <c r="AC7" s="327"/>
-      <c r="AD7" s="327"/>
-      <c r="AE7" s="327"/>
-      <c r="AF7" s="327"/>
-      <c r="AG7" s="327"/>
-      <c r="AH7" s="327"/>
-      <c r="AI7" s="328"/>
+      <c r="V7" s="360"/>
+      <c r="W7" s="360"/>
+      <c r="X7" s="360"/>
+      <c r="Y7" s="360"/>
+      <c r="Z7" s="360"/>
+      <c r="AA7" s="360"/>
+      <c r="AB7" s="360"/>
+      <c r="AC7" s="360"/>
+      <c r="AD7" s="360"/>
+      <c r="AE7" s="360"/>
+      <c r="AF7" s="360"/>
+      <c r="AG7" s="360"/>
+      <c r="AH7" s="360"/>
+      <c r="AI7" s="361"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="323" t="s">
+      <c r="A8" s="326" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="332"/>
-      <c r="C8" s="332"/>
-      <c r="D8" s="333"/>
-      <c r="E8" s="329" t="s">
+      <c r="B8" s="333"/>
+      <c r="C8" s="333"/>
+      <c r="D8" s="334"/>
+      <c r="E8" s="344" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="330"/>
-      <c r="G8" s="330"/>
-      <c r="H8" s="330"/>
-      <c r="I8" s="330"/>
-      <c r="J8" s="330"/>
-      <c r="K8" s="330"/>
-      <c r="L8" s="330"/>
-      <c r="M8" s="330"/>
-      <c r="N8" s="330"/>
-      <c r="O8" s="330"/>
-      <c r="P8" s="330"/>
-      <c r="Q8" s="323" t="s">
+      <c r="F8" s="345"/>
+      <c r="G8" s="345"/>
+      <c r="H8" s="345"/>
+      <c r="I8" s="345"/>
+      <c r="J8" s="345"/>
+      <c r="K8" s="345"/>
+      <c r="L8" s="345"/>
+      <c r="M8" s="345"/>
+      <c r="N8" s="345"/>
+      <c r="O8" s="345"/>
+      <c r="P8" s="345"/>
+      <c r="Q8" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="332"/>
-      <c r="S8" s="332"/>
-      <c r="T8" s="333"/>
-      <c r="U8" s="329" t="s">
+      <c r="R8" s="333"/>
+      <c r="S8" s="333"/>
+      <c r="T8" s="334"/>
+      <c r="U8" s="344" t="s">
         <v>113</v>
       </c>
-      <c r="V8" s="330"/>
-      <c r="W8" s="330"/>
-      <c r="X8" s="330"/>
-      <c r="Y8" s="330"/>
-      <c r="Z8" s="330"/>
-      <c r="AA8" s="330"/>
-      <c r="AB8" s="330"/>
-      <c r="AC8" s="330"/>
-      <c r="AD8" s="330"/>
-      <c r="AE8" s="330"/>
-      <c r="AF8" s="330"/>
-      <c r="AG8" s="330"/>
-      <c r="AH8" s="330"/>
-      <c r="AI8" s="331"/>
+      <c r="V8" s="345"/>
+      <c r="W8" s="345"/>
+      <c r="X8" s="345"/>
+      <c r="Y8" s="345"/>
+      <c r="Z8" s="345"/>
+      <c r="AA8" s="345"/>
+      <c r="AB8" s="345"/>
+      <c r="AC8" s="345"/>
+      <c r="AD8" s="345"/>
+      <c r="AE8" s="345"/>
+      <c r="AF8" s="345"/>
+      <c r="AG8" s="345"/>
+      <c r="AH8" s="345"/>
+      <c r="AI8" s="346"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="323" t="s">
+      <c r="A9" s="326" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="332"/>
-      <c r="C9" s="332"/>
-      <c r="D9" s="333"/>
+      <c r="B9" s="333"/>
+      <c r="C9" s="333"/>
+      <c r="D9" s="334"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -10472,12 +10048,12 @@
       <c r="AI13" s="37"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="323" t="s">
+      <c r="A14" s="326" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="324"/>
-      <c r="C14" s="324"/>
-      <c r="D14" s="325"/>
+      <c r="B14" s="327"/>
+      <c r="C14" s="327"/>
+      <c r="D14" s="328"/>
       <c r="E14" s="127"/>
       <c r="F14" s="127"/>
       <c r="G14" s="127"/>
@@ -10622,12 +10198,12 @@
       <c r="AI17" s="37"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="337" t="s">
+      <c r="A18" s="347" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="338"/>
-      <c r="C18" s="338"/>
-      <c r="D18" s="339"/>
+      <c r="B18" s="348"/>
+      <c r="C18" s="348"/>
+      <c r="D18" s="349"/>
       <c r="E18" s="157"/>
       <c r="F18" s="158"/>
       <c r="G18" s="146"/>
@@ -10640,12 +10216,12 @@
       <c r="N18" s="146"/>
       <c r="O18" s="144"/>
       <c r="P18" s="146"/>
-      <c r="Q18" s="337" t="s">
+      <c r="Q18" s="347" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="338"/>
-      <c r="S18" s="338"/>
-      <c r="T18" s="339"/>
+      <c r="R18" s="348"/>
+      <c r="S18" s="348"/>
+      <c r="T18" s="349"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -10745,55 +10321,55 @@
       <c r="AI20" s="21"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="323" t="s">
+      <c r="A21" s="326" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="332"/>
-      <c r="C21" s="332"/>
-      <c r="D21" s="333"/>
-      <c r="E21" s="329" t="s">
+      <c r="B21" s="333"/>
+      <c r="C21" s="333"/>
+      <c r="D21" s="334"/>
+      <c r="E21" s="344" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="330"/>
-      <c r="G21" s="330"/>
-      <c r="H21" s="330"/>
-      <c r="I21" s="330"/>
-      <c r="J21" s="330"/>
-      <c r="K21" s="330"/>
-      <c r="L21" s="330"/>
-      <c r="M21" s="330"/>
-      <c r="N21" s="330"/>
-      <c r="O21" s="330"/>
-      <c r="P21" s="331"/>
-      <c r="Q21" s="323" t="s">
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
+      <c r="K21" s="345"/>
+      <c r="L21" s="345"/>
+      <c r="M21" s="345"/>
+      <c r="N21" s="345"/>
+      <c r="O21" s="345"/>
+      <c r="P21" s="346"/>
+      <c r="Q21" s="326" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="332"/>
-      <c r="S21" s="332"/>
-      <c r="T21" s="333"/>
-      <c r="U21" s="340"/>
-      <c r="V21" s="341"/>
-      <c r="W21" s="341"/>
-      <c r="X21" s="341"/>
-      <c r="Y21" s="341"/>
-      <c r="Z21" s="341"/>
-      <c r="AA21" s="341"/>
-      <c r="AB21" s="341"/>
-      <c r="AC21" s="341"/>
-      <c r="AD21" s="341"/>
-      <c r="AE21" s="341"/>
-      <c r="AF21" s="341"/>
-      <c r="AG21" s="341"/>
-      <c r="AH21" s="341"/>
-      <c r="AI21" s="342"/>
+      <c r="R21" s="333"/>
+      <c r="S21" s="333"/>
+      <c r="T21" s="334"/>
+      <c r="U21" s="350"/>
+      <c r="V21" s="351"/>
+      <c r="W21" s="351"/>
+      <c r="X21" s="351"/>
+      <c r="Y21" s="351"/>
+      <c r="Z21" s="351"/>
+      <c r="AA21" s="351"/>
+      <c r="AB21" s="351"/>
+      <c r="AC21" s="351"/>
+      <c r="AD21" s="351"/>
+      <c r="AE21" s="351"/>
+      <c r="AF21" s="351"/>
+      <c r="AG21" s="351"/>
+      <c r="AH21" s="351"/>
+      <c r="AI21" s="352"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="334" t="s">
+      <c r="A22" s="353" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="335"/>
-      <c r="C22" s="335"/>
-      <c r="D22" s="336"/>
+      <c r="B22" s="354"/>
+      <c r="C22" s="354"/>
+      <c r="D22" s="355"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="127"/>
@@ -10806,12 +10382,12 @@
       <c r="N22" s="127"/>
       <c r="O22" s="18"/>
       <c r="P22" s="127"/>
-      <c r="Q22" s="334" t="s">
+      <c r="Q22" s="353" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="335"/>
-      <c r="S22" s="335"/>
-      <c r="T22" s="336"/>
+      <c r="R22" s="354"/>
+      <c r="S22" s="354"/>
+      <c r="T22" s="355"/>
       <c r="U22" s="154"/>
       <c r="V22" s="155"/>
       <c r="W22" s="162"/>
@@ -10874,36 +10450,36 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="356" t="s">
+      <c r="A24" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="357"/>
-      <c r="C24" s="357"/>
-      <c r="D24" s="358"/>
-      <c r="E24" s="329" t="s">
+      <c r="B24" s="342"/>
+      <c r="C24" s="342"/>
+      <c r="D24" s="343"/>
+      <c r="E24" s="344" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="330"/>
-      <c r="G24" s="330"/>
-      <c r="H24" s="330"/>
-      <c r="I24" s="330"/>
-      <c r="J24" s="330"/>
-      <c r="K24" s="330"/>
-      <c r="L24" s="330"/>
-      <c r="M24" s="330"/>
-      <c r="N24" s="330"/>
-      <c r="O24" s="330"/>
-      <c r="P24" s="331"/>
-      <c r="Q24" s="343" t="s">
+      <c r="F24" s="345"/>
+      <c r="G24" s="345"/>
+      <c r="H24" s="345"/>
+      <c r="I24" s="345"/>
+      <c r="J24" s="345"/>
+      <c r="K24" s="345"/>
+      <c r="L24" s="345"/>
+      <c r="M24" s="345"/>
+      <c r="N24" s="345"/>
+      <c r="O24" s="345"/>
+      <c r="P24" s="346"/>
+      <c r="Q24" s="356" t="s">
         <v>47</v>
       </c>
-      <c r="R24" s="344"/>
-      <c r="S24" s="344"/>
-      <c r="T24" s="345"/>
-      <c r="U24" s="348"/>
-      <c r="V24" s="349"/>
-      <c r="W24" s="349"/>
-      <c r="X24" s="349"/>
+      <c r="R24" s="357"/>
+      <c r="S24" s="357"/>
+      <c r="T24" s="358"/>
+      <c r="U24" s="331"/>
+      <c r="V24" s="332"/>
+      <c r="W24" s="332"/>
+      <c r="X24" s="332"/>
       <c r="Y24" s="159" t="s">
         <v>48</v>
       </c>
@@ -10919,26 +10495,26 @@
       <c r="AI24" s="161"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="352" t="s">
+      <c r="A25" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="353"/>
-      <c r="C25" s="353"/>
-      <c r="D25" s="354"/>
+      <c r="B25" s="338"/>
+      <c r="C25" s="338"/>
+      <c r="D25" s="339"/>
       <c r="E25" s="23"/>
       <c r="F25" s="36"/>
       <c r="G25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="346"/>
-      <c r="I25" s="347"/>
-      <c r="J25" s="347"/>
-      <c r="K25" s="347"/>
-      <c r="L25" s="347"/>
-      <c r="M25" s="347"/>
-      <c r="N25" s="347"/>
-      <c r="O25" s="347"/>
-      <c r="P25" s="347"/>
+      <c r="H25" s="329"/>
+      <c r="I25" s="330"/>
+      <c r="J25" s="330"/>
+      <c r="K25" s="330"/>
+      <c r="L25" s="330"/>
+      <c r="M25" s="330"/>
+      <c r="N25" s="330"/>
+      <c r="O25" s="330"/>
+      <c r="P25" s="330"/>
       <c r="Q25" s="127" t="s">
         <v>7</v>
       </c>
@@ -10947,15 +10523,15 @@
       <c r="T25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="355"/>
-      <c r="V25" s="355"/>
-      <c r="W25" s="355"/>
-      <c r="X25" s="355"/>
-      <c r="Y25" s="355"/>
-      <c r="Z25" s="355"/>
-      <c r="AA25" s="355"/>
-      <c r="AB25" s="355"/>
-      <c r="AC25" s="355"/>
+      <c r="U25" s="340"/>
+      <c r="V25" s="340"/>
+      <c r="W25" s="340"/>
+      <c r="X25" s="340"/>
+      <c r="Y25" s="340"/>
+      <c r="Z25" s="340"/>
+      <c r="AA25" s="340"/>
+      <c r="AB25" s="340"/>
+      <c r="AC25" s="340"/>
       <c r="AD25" s="127" t="s">
         <v>7</v>
       </c>
@@ -10975,15 +10551,15 @@
       <c r="G26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="351"/>
-      <c r="I26" s="351"/>
-      <c r="J26" s="351"/>
-      <c r="K26" s="351"/>
-      <c r="L26" s="351"/>
-      <c r="M26" s="351"/>
-      <c r="N26" s="351"/>
-      <c r="O26" s="351"/>
-      <c r="P26" s="351"/>
+      <c r="H26" s="336"/>
+      <c r="I26" s="336"/>
+      <c r="J26" s="336"/>
+      <c r="K26" s="336"/>
+      <c r="L26" s="336"/>
+      <c r="M26" s="336"/>
+      <c r="N26" s="336"/>
+      <c r="O26" s="336"/>
+      <c r="P26" s="336"/>
       <c r="Q26" s="126" t="s">
         <v>7</v>
       </c>
@@ -10992,15 +10568,15 @@
       <c r="T26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="351"/>
-      <c r="V26" s="351"/>
-      <c r="W26" s="351"/>
-      <c r="X26" s="351"/>
-      <c r="Y26" s="351"/>
-      <c r="Z26" s="351"/>
-      <c r="AA26" s="351"/>
-      <c r="AB26" s="351"/>
-      <c r="AC26" s="351"/>
+      <c r="U26" s="336"/>
+      <c r="V26" s="336"/>
+      <c r="W26" s="336"/>
+      <c r="X26" s="336"/>
+      <c r="Y26" s="336"/>
+      <c r="Z26" s="336"/>
+      <c r="AA26" s="336"/>
+      <c r="AB26" s="336"/>
+      <c r="AC26" s="336"/>
       <c r="AD26" s="126" t="s">
         <v>7</v>
       </c>
@@ -11020,15 +10596,15 @@
       <c r="G27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="350"/>
-      <c r="I27" s="350"/>
-      <c r="J27" s="350"/>
-      <c r="K27" s="350"/>
-      <c r="L27" s="350"/>
-      <c r="M27" s="350"/>
-      <c r="N27" s="350"/>
-      <c r="O27" s="350"/>
-      <c r="P27" s="350"/>
+      <c r="H27" s="335"/>
+      <c r="I27" s="335"/>
+      <c r="J27" s="335"/>
+      <c r="K27" s="335"/>
+      <c r="L27" s="335"/>
+      <c r="M27" s="335"/>
+      <c r="N27" s="335"/>
+      <c r="O27" s="335"/>
+      <c r="P27" s="335"/>
       <c r="Q27" s="125" t="s">
         <v>7</v>
       </c>
@@ -11037,31 +10613,31 @@
       <c r="T27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="350"/>
-      <c r="V27" s="350"/>
-      <c r="W27" s="350"/>
-      <c r="X27" s="350"/>
-      <c r="Y27" s="350"/>
-      <c r="Z27" s="350"/>
-      <c r="AA27" s="350"/>
-      <c r="AB27" s="350"/>
-      <c r="AC27" s="350"/>
-      <c r="AD27" s="350"/>
-      <c r="AE27" s="350"/>
-      <c r="AF27" s="350"/>
-      <c r="AG27" s="350"/>
-      <c r="AH27" s="350"/>
+      <c r="U27" s="335"/>
+      <c r="V27" s="335"/>
+      <c r="W27" s="335"/>
+      <c r="X27" s="335"/>
+      <c r="Y27" s="335"/>
+      <c r="Z27" s="335"/>
+      <c r="AA27" s="335"/>
+      <c r="AB27" s="335"/>
+      <c r="AC27" s="335"/>
+      <c r="AD27" s="335"/>
+      <c r="AE27" s="335"/>
+      <c r="AF27" s="335"/>
+      <c r="AG27" s="335"/>
+      <c r="AH27" s="335"/>
       <c r="AI27" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="323" t="s">
+      <c r="A28" s="326" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="324"/>
-      <c r="C28" s="324"/>
-      <c r="D28" s="325"/>
+      <c r="B28" s="327"/>
+      <c r="C28" s="327"/>
+      <c r="D28" s="328"/>
       <c r="E28" s="127"/>
       <c r="F28" s="127"/>
       <c r="G28" s="127"/>
@@ -11207,23 +10783,21 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11238,21 +10812,23 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -11911,7 +11487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11927,158 +11503,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="249" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="314" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="359">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="323">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="360"/>
-      <c r="AI1" s="361"/>
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="325"/>
     </row>
     <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="249" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="359" t="str">
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="360"/>
-      <c r="AI2" s="361"/>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="325"/>
     </row>
     <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="249" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="359" t="str">
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="360"/>
-      <c r="AI3" s="361"/>
+      <c r="AH3" s="324"/>
+      <c r="AI3" s="325"/>
     </row>
     <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="91"/>
@@ -12238,463 +11814,463 @@
       <c r="AU7" s="74"/>
     </row>
     <row r="8" spans="1:47">
-      <c r="A8" s="380" t="s">
+      <c r="A8" s="428" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="381"/>
-      <c r="C8" s="381"/>
-      <c r="D8" s="381"/>
-      <c r="E8" s="381"/>
-      <c r="F8" s="381"/>
-      <c r="G8" s="381"/>
-      <c r="H8" s="381"/>
-      <c r="I8" s="381"/>
-      <c r="J8" s="381"/>
-      <c r="K8" s="381"/>
-      <c r="L8" s="381"/>
-      <c r="M8" s="381"/>
-      <c r="N8" s="381"/>
-      <c r="O8" s="381"/>
-      <c r="P8" s="381"/>
-      <c r="Q8" s="381"/>
-      <c r="R8" s="381"/>
-      <c r="S8" s="381"/>
-      <c r="T8" s="381"/>
-      <c r="U8" s="381"/>
-      <c r="V8" s="381"/>
-      <c r="W8" s="381"/>
-      <c r="X8" s="381"/>
-      <c r="Y8" s="381"/>
-      <c r="Z8" s="381"/>
-      <c r="AA8" s="381"/>
-      <c r="AB8" s="382"/>
-      <c r="AC8" s="446" t="s">
+      <c r="B8" s="378"/>
+      <c r="C8" s="378"/>
+      <c r="D8" s="378"/>
+      <c r="E8" s="378"/>
+      <c r="F8" s="378"/>
+      <c r="G8" s="378"/>
+      <c r="H8" s="378"/>
+      <c r="I8" s="378"/>
+      <c r="J8" s="378"/>
+      <c r="K8" s="378"/>
+      <c r="L8" s="378"/>
+      <c r="M8" s="378"/>
+      <c r="N8" s="378"/>
+      <c r="O8" s="378"/>
+      <c r="P8" s="378"/>
+      <c r="Q8" s="378"/>
+      <c r="R8" s="378"/>
+      <c r="S8" s="378"/>
+      <c r="T8" s="378"/>
+      <c r="U8" s="378"/>
+      <c r="V8" s="378"/>
+      <c r="W8" s="378"/>
+      <c r="X8" s="378"/>
+      <c r="Y8" s="378"/>
+      <c r="Z8" s="378"/>
+      <c r="AA8" s="378"/>
+      <c r="AB8" s="429"/>
+      <c r="AC8" s="377" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="381"/>
-      <c r="AE8" s="447"/>
-      <c r="AF8" s="443"/>
-      <c r="AG8" s="444"/>
-      <c r="AH8" s="444"/>
-      <c r="AI8" s="445"/>
+      <c r="AD8" s="378"/>
+      <c r="AE8" s="379"/>
+      <c r="AF8" s="374"/>
+      <c r="AG8" s="375"/>
+      <c r="AH8" s="375"/>
+      <c r="AI8" s="376"/>
     </row>
     <row r="9" spans="1:47" s="238" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="237" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="365" t="s">
+      <c r="B9" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="274"/>
-      <c r="D9" s="274"/>
-      <c r="E9" s="274"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="365" t="s">
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="424" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="366"/>
-      <c r="I9" s="367"/>
-      <c r="J9" s="365" t="s">
+      <c r="H9" s="425"/>
+      <c r="I9" s="427"/>
+      <c r="J9" s="424" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="366"/>
-      <c r="L9" s="366"/>
-      <c r="M9" s="366"/>
-      <c r="N9" s="366"/>
-      <c r="O9" s="366"/>
-      <c r="P9" s="367"/>
-      <c r="Q9" s="370" t="s">
+      <c r="K9" s="425"/>
+      <c r="L9" s="425"/>
+      <c r="M9" s="425"/>
+      <c r="N9" s="425"/>
+      <c r="O9" s="425"/>
+      <c r="P9" s="427"/>
+      <c r="Q9" s="442" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="372"/>
-      <c r="S9" s="370" t="s">
+      <c r="R9" s="444"/>
+      <c r="S9" s="442" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="371"/>
-      <c r="U9" s="372"/>
-      <c r="V9" s="365" t="s">
+      <c r="T9" s="443"/>
+      <c r="U9" s="444"/>
+      <c r="V9" s="424" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="366"/>
-      <c r="X9" s="366"/>
-      <c r="Y9" s="366"/>
-      <c r="Z9" s="366"/>
-      <c r="AA9" s="366"/>
-      <c r="AB9" s="379"/>
-      <c r="AC9" s="391" t="s">
+      <c r="W9" s="425"/>
+      <c r="X9" s="425"/>
+      <c r="Y9" s="425"/>
+      <c r="Z9" s="425"/>
+      <c r="AA9" s="425"/>
+      <c r="AB9" s="426"/>
+      <c r="AC9" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="AD9" s="392"/>
-      <c r="AE9" s="392"/>
-      <c r="AF9" s="392"/>
-      <c r="AG9" s="392"/>
-      <c r="AH9" s="393" t="s">
+      <c r="AD9" s="437"/>
+      <c r="AE9" s="437"/>
+      <c r="AF9" s="437"/>
+      <c r="AG9" s="437"/>
+      <c r="AH9" s="438" t="s">
         <v>77</v>
       </c>
-      <c r="AI9" s="393"/>
+      <c r="AI9" s="438"/>
     </row>
     <row r="10" spans="1:47" ht="19.5" customHeight="1">
       <c r="A10" s="194">
         <v>1</v>
       </c>
-      <c r="B10" s="430" t="s">
+      <c r="B10" s="387" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="431"/>
-      <c r="D10" s="431"/>
-      <c r="E10" s="431"/>
-      <c r="F10" s="432"/>
-      <c r="G10" s="388"/>
-      <c r="H10" s="389"/>
-      <c r="I10" s="390"/>
-      <c r="J10" s="374"/>
-      <c r="K10" s="375"/>
-      <c r="L10" s="375"/>
-      <c r="M10" s="375"/>
-      <c r="N10" s="375"/>
-      <c r="O10" s="375"/>
-      <c r="P10" s="376"/>
-      <c r="Q10" s="386"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="386"/>
-      <c r="T10" s="433"/>
-      <c r="U10" s="387"/>
-      <c r="V10" s="394"/>
-      <c r="W10" s="395"/>
-      <c r="X10" s="395"/>
-      <c r="Y10" s="395"/>
-      <c r="Z10" s="395"/>
-      <c r="AA10" s="395"/>
-      <c r="AB10" s="396"/>
-      <c r="AC10" s="425" t="s">
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="389"/>
+      <c r="G10" s="433"/>
+      <c r="H10" s="434"/>
+      <c r="I10" s="435"/>
+      <c r="J10" s="445"/>
+      <c r="K10" s="446"/>
+      <c r="L10" s="446"/>
+      <c r="M10" s="446"/>
+      <c r="N10" s="446"/>
+      <c r="O10" s="446"/>
+      <c r="P10" s="447"/>
+      <c r="Q10" s="396"/>
+      <c r="R10" s="398"/>
+      <c r="S10" s="396"/>
+      <c r="T10" s="397"/>
+      <c r="U10" s="398"/>
+      <c r="V10" s="439"/>
+      <c r="W10" s="440"/>
+      <c r="X10" s="440"/>
+      <c r="Y10" s="440"/>
+      <c r="Z10" s="440"/>
+      <c r="AA10" s="440"/>
+      <c r="AB10" s="441"/>
+      <c r="AC10" s="421" t="s">
         <v>78</v>
       </c>
-      <c r="AD10" s="437"/>
-      <c r="AE10" s="438"/>
-      <c r="AF10" s="438"/>
-      <c r="AG10" s="439"/>
-      <c r="AH10" s="428"/>
-      <c r="AI10" s="429"/>
+      <c r="AD10" s="365"/>
+      <c r="AE10" s="366"/>
+      <c r="AF10" s="366"/>
+      <c r="AG10" s="367"/>
+      <c r="AH10" s="385"/>
+      <c r="AI10" s="386"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="195">
         <v>2</v>
       </c>
-      <c r="B11" s="362"/>
-      <c r="C11" s="363"/>
-      <c r="D11" s="363"/>
-      <c r="E11" s="363"/>
-      <c r="F11" s="364"/>
-      <c r="G11" s="383"/>
-      <c r="H11" s="384"/>
-      <c r="I11" s="385"/>
-      <c r="J11" s="362"/>
-      <c r="K11" s="363"/>
-      <c r="L11" s="363"/>
-      <c r="M11" s="363"/>
-      <c r="N11" s="363"/>
-      <c r="O11" s="363"/>
-      <c r="P11" s="364"/>
-      <c r="Q11" s="368"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="368"/>
-      <c r="T11" s="373"/>
-      <c r="U11" s="369"/>
-      <c r="V11" s="397"/>
-      <c r="W11" s="398"/>
-      <c r="X11" s="398"/>
-      <c r="Y11" s="398"/>
-      <c r="Z11" s="398"/>
-      <c r="AA11" s="398"/>
-      <c r="AB11" s="399"/>
-      <c r="AC11" s="426"/>
-      <c r="AD11" s="440"/>
-      <c r="AE11" s="441"/>
-      <c r="AF11" s="441"/>
-      <c r="AG11" s="442"/>
-      <c r="AH11" s="377"/>
-      <c r="AI11" s="378"/>
+      <c r="B11" s="390"/>
+      <c r="C11" s="391"/>
+      <c r="D11" s="391"/>
+      <c r="E11" s="391"/>
+      <c r="F11" s="392"/>
+      <c r="G11" s="430"/>
+      <c r="H11" s="431"/>
+      <c r="I11" s="432"/>
+      <c r="J11" s="390"/>
+      <c r="K11" s="391"/>
+      <c r="L11" s="391"/>
+      <c r="M11" s="391"/>
+      <c r="N11" s="391"/>
+      <c r="O11" s="391"/>
+      <c r="P11" s="392"/>
+      <c r="Q11" s="399"/>
+      <c r="R11" s="401"/>
+      <c r="S11" s="399"/>
+      <c r="T11" s="400"/>
+      <c r="U11" s="401"/>
+      <c r="V11" s="382"/>
+      <c r="W11" s="383"/>
+      <c r="X11" s="383"/>
+      <c r="Y11" s="383"/>
+      <c r="Z11" s="383"/>
+      <c r="AA11" s="383"/>
+      <c r="AB11" s="384"/>
+      <c r="AC11" s="422"/>
+      <c r="AD11" s="368"/>
+      <c r="AE11" s="369"/>
+      <c r="AF11" s="369"/>
+      <c r="AG11" s="370"/>
+      <c r="AH11" s="380"/>
+      <c r="AI11" s="381"/>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="195">
         <v>3</v>
       </c>
-      <c r="B12" s="362"/>
-      <c r="C12" s="363"/>
-      <c r="D12" s="363"/>
-      <c r="E12" s="363"/>
-      <c r="F12" s="364"/>
-      <c r="G12" s="383"/>
-      <c r="H12" s="384"/>
-      <c r="I12" s="385"/>
-      <c r="J12" s="362"/>
-      <c r="K12" s="363"/>
-      <c r="L12" s="363"/>
-      <c r="M12" s="363"/>
-      <c r="N12" s="363"/>
-      <c r="O12" s="363"/>
-      <c r="P12" s="364"/>
-      <c r="Q12" s="368"/>
-      <c r="R12" s="369"/>
-      <c r="S12" s="368"/>
-      <c r="T12" s="373"/>
-      <c r="U12" s="369"/>
-      <c r="V12" s="397"/>
-      <c r="W12" s="398"/>
-      <c r="X12" s="398"/>
-      <c r="Y12" s="398"/>
-      <c r="Z12" s="398"/>
-      <c r="AA12" s="398"/>
-      <c r="AB12" s="399"/>
-      <c r="AC12" s="426"/>
-      <c r="AD12" s="400"/>
-      <c r="AE12" s="401"/>
-      <c r="AF12" s="401"/>
-      <c r="AG12" s="402"/>
-      <c r="AH12" s="377"/>
-      <c r="AI12" s="378"/>
+      <c r="B12" s="390"/>
+      <c r="C12" s="391"/>
+      <c r="D12" s="391"/>
+      <c r="E12" s="391"/>
+      <c r="F12" s="392"/>
+      <c r="G12" s="430"/>
+      <c r="H12" s="431"/>
+      <c r="I12" s="432"/>
+      <c r="J12" s="390"/>
+      <c r="K12" s="391"/>
+      <c r="L12" s="391"/>
+      <c r="M12" s="391"/>
+      <c r="N12" s="391"/>
+      <c r="O12" s="391"/>
+      <c r="P12" s="392"/>
+      <c r="Q12" s="399"/>
+      <c r="R12" s="401"/>
+      <c r="S12" s="399"/>
+      <c r="T12" s="400"/>
+      <c r="U12" s="401"/>
+      <c r="V12" s="382"/>
+      <c r="W12" s="383"/>
+      <c r="X12" s="383"/>
+      <c r="Y12" s="383"/>
+      <c r="Z12" s="383"/>
+      <c r="AA12" s="383"/>
+      <c r="AB12" s="384"/>
+      <c r="AC12" s="422"/>
+      <c r="AD12" s="371"/>
+      <c r="AE12" s="372"/>
+      <c r="AF12" s="372"/>
+      <c r="AG12" s="373"/>
+      <c r="AH12" s="380"/>
+      <c r="AI12" s="381"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="195">
         <v>4</v>
       </c>
-      <c r="B13" s="362"/>
-      <c r="C13" s="363"/>
-      <c r="D13" s="363"/>
-      <c r="E13" s="363"/>
-      <c r="F13" s="364"/>
-      <c r="G13" s="383"/>
-      <c r="H13" s="384"/>
-      <c r="I13" s="385"/>
-      <c r="J13" s="362"/>
-      <c r="K13" s="363"/>
-      <c r="L13" s="363"/>
-      <c r="M13" s="363"/>
-      <c r="N13" s="363"/>
-      <c r="O13" s="363"/>
-      <c r="P13" s="364"/>
-      <c r="Q13" s="368"/>
-      <c r="R13" s="369"/>
-      <c r="S13" s="368"/>
-      <c r="T13" s="373"/>
-      <c r="U13" s="369"/>
-      <c r="V13" s="397"/>
-      <c r="W13" s="398"/>
-      <c r="X13" s="398"/>
-      <c r="Y13" s="398"/>
-      <c r="Z13" s="398"/>
-      <c r="AA13" s="398"/>
-      <c r="AB13" s="399"/>
-      <c r="AC13" s="426"/>
-      <c r="AD13" s="400"/>
-      <c r="AE13" s="401"/>
-      <c r="AF13" s="401"/>
-      <c r="AG13" s="402"/>
-      <c r="AH13" s="377"/>
-      <c r="AI13" s="378"/>
+      <c r="B13" s="390"/>
+      <c r="C13" s="391"/>
+      <c r="D13" s="391"/>
+      <c r="E13" s="391"/>
+      <c r="F13" s="392"/>
+      <c r="G13" s="430"/>
+      <c r="H13" s="431"/>
+      <c r="I13" s="432"/>
+      <c r="J13" s="390"/>
+      <c r="K13" s="391"/>
+      <c r="L13" s="391"/>
+      <c r="M13" s="391"/>
+      <c r="N13" s="391"/>
+      <c r="O13" s="391"/>
+      <c r="P13" s="392"/>
+      <c r="Q13" s="399"/>
+      <c r="R13" s="401"/>
+      <c r="S13" s="399"/>
+      <c r="T13" s="400"/>
+      <c r="U13" s="401"/>
+      <c r="V13" s="382"/>
+      <c r="W13" s="383"/>
+      <c r="X13" s="383"/>
+      <c r="Y13" s="383"/>
+      <c r="Z13" s="383"/>
+      <c r="AA13" s="383"/>
+      <c r="AB13" s="384"/>
+      <c r="AC13" s="422"/>
+      <c r="AD13" s="371"/>
+      <c r="AE13" s="372"/>
+      <c r="AF13" s="372"/>
+      <c r="AG13" s="373"/>
+      <c r="AH13" s="380"/>
+      <c r="AI13" s="381"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="195">
         <v>5</v>
       </c>
-      <c r="B14" s="417"/>
-      <c r="C14" s="418"/>
-      <c r="D14" s="418"/>
-      <c r="E14" s="418"/>
-      <c r="F14" s="419"/>
-      <c r="G14" s="362"/>
-      <c r="H14" s="363"/>
-      <c r="I14" s="364"/>
-      <c r="J14" s="362"/>
-      <c r="K14" s="363"/>
-      <c r="L14" s="363"/>
-      <c r="M14" s="363"/>
-      <c r="N14" s="363"/>
-      <c r="O14" s="363"/>
-      <c r="P14" s="364"/>
-      <c r="Q14" s="368"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="368"/>
-      <c r="T14" s="373"/>
-      <c r="U14" s="369"/>
-      <c r="V14" s="397"/>
-      <c r="W14" s="398"/>
-      <c r="X14" s="398"/>
-      <c r="Y14" s="398"/>
-      <c r="Z14" s="398"/>
-      <c r="AA14" s="398"/>
-      <c r="AB14" s="399"/>
-      <c r="AC14" s="426"/>
-      <c r="AD14" s="400"/>
-      <c r="AE14" s="401"/>
-      <c r="AF14" s="401"/>
-      <c r="AG14" s="402"/>
-      <c r="AH14" s="377"/>
-      <c r="AI14" s="378"/>
+      <c r="B14" s="393"/>
+      <c r="C14" s="394"/>
+      <c r="D14" s="394"/>
+      <c r="E14" s="394"/>
+      <c r="F14" s="395"/>
+      <c r="G14" s="390"/>
+      <c r="H14" s="391"/>
+      <c r="I14" s="392"/>
+      <c r="J14" s="390"/>
+      <c r="K14" s="391"/>
+      <c r="L14" s="391"/>
+      <c r="M14" s="391"/>
+      <c r="N14" s="391"/>
+      <c r="O14" s="391"/>
+      <c r="P14" s="392"/>
+      <c r="Q14" s="399"/>
+      <c r="R14" s="401"/>
+      <c r="S14" s="399"/>
+      <c r="T14" s="400"/>
+      <c r="U14" s="401"/>
+      <c r="V14" s="382"/>
+      <c r="W14" s="383"/>
+      <c r="X14" s="383"/>
+      <c r="Y14" s="383"/>
+      <c r="Z14" s="383"/>
+      <c r="AA14" s="383"/>
+      <c r="AB14" s="384"/>
+      <c r="AC14" s="422"/>
+      <c r="AD14" s="371"/>
+      <c r="AE14" s="372"/>
+      <c r="AF14" s="372"/>
+      <c r="AG14" s="373"/>
+      <c r="AH14" s="380"/>
+      <c r="AI14" s="381"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="195">
         <v>6</v>
       </c>
-      <c r="B15" s="417"/>
-      <c r="C15" s="418"/>
-      <c r="D15" s="418"/>
-      <c r="E15" s="418"/>
-      <c r="F15" s="419"/>
-      <c r="G15" s="362"/>
-      <c r="H15" s="363"/>
-      <c r="I15" s="364"/>
-      <c r="J15" s="362"/>
-      <c r="K15" s="363"/>
-      <c r="L15" s="363"/>
-      <c r="M15" s="363"/>
-      <c r="N15" s="363"/>
-      <c r="O15" s="363"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="368"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="368"/>
-      <c r="T15" s="373"/>
-      <c r="U15" s="369"/>
-      <c r="V15" s="397"/>
-      <c r="W15" s="398"/>
-      <c r="X15" s="398"/>
-      <c r="Y15" s="398"/>
-      <c r="Z15" s="398"/>
-      <c r="AA15" s="398"/>
-      <c r="AB15" s="399"/>
-      <c r="AC15" s="426"/>
-      <c r="AD15" s="400"/>
-      <c r="AE15" s="401"/>
-      <c r="AF15" s="401"/>
-      <c r="AG15" s="402"/>
-      <c r="AH15" s="377"/>
-      <c r="AI15" s="378"/>
+      <c r="B15" s="393"/>
+      <c r="C15" s="394"/>
+      <c r="D15" s="394"/>
+      <c r="E15" s="394"/>
+      <c r="F15" s="395"/>
+      <c r="G15" s="390"/>
+      <c r="H15" s="391"/>
+      <c r="I15" s="392"/>
+      <c r="J15" s="390"/>
+      <c r="K15" s="391"/>
+      <c r="L15" s="391"/>
+      <c r="M15" s="391"/>
+      <c r="N15" s="391"/>
+      <c r="O15" s="391"/>
+      <c r="P15" s="392"/>
+      <c r="Q15" s="399"/>
+      <c r="R15" s="401"/>
+      <c r="S15" s="399"/>
+      <c r="T15" s="400"/>
+      <c r="U15" s="401"/>
+      <c r="V15" s="382"/>
+      <c r="W15" s="383"/>
+      <c r="X15" s="383"/>
+      <c r="Y15" s="383"/>
+      <c r="Z15" s="383"/>
+      <c r="AA15" s="383"/>
+      <c r="AB15" s="384"/>
+      <c r="AC15" s="422"/>
+      <c r="AD15" s="371"/>
+      <c r="AE15" s="372"/>
+      <c r="AF15" s="372"/>
+      <c r="AG15" s="373"/>
+      <c r="AH15" s="380"/>
+      <c r="AI15" s="381"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="196">
         <v>7</v>
       </c>
-      <c r="B16" s="417"/>
-      <c r="C16" s="418"/>
-      <c r="D16" s="418"/>
-      <c r="E16" s="418"/>
-      <c r="F16" s="419"/>
-      <c r="G16" s="362"/>
-      <c r="H16" s="363"/>
-      <c r="I16" s="364"/>
-      <c r="J16" s="362"/>
-      <c r="K16" s="363"/>
-      <c r="L16" s="363"/>
-      <c r="M16" s="363"/>
-      <c r="N16" s="363"/>
-      <c r="O16" s="363"/>
-      <c r="P16" s="364"/>
-      <c r="Q16" s="368"/>
-      <c r="R16" s="369"/>
-      <c r="S16" s="368"/>
-      <c r="T16" s="373"/>
-      <c r="U16" s="369"/>
-      <c r="V16" s="397"/>
-      <c r="W16" s="398"/>
-      <c r="X16" s="398"/>
-      <c r="Y16" s="398"/>
-      <c r="Z16" s="398"/>
-      <c r="AA16" s="398"/>
-      <c r="AB16" s="399"/>
-      <c r="AC16" s="426"/>
-      <c r="AD16" s="400"/>
-      <c r="AE16" s="401"/>
-      <c r="AF16" s="401"/>
-      <c r="AG16" s="402"/>
-      <c r="AH16" s="377"/>
-      <c r="AI16" s="378"/>
+      <c r="B16" s="393"/>
+      <c r="C16" s="394"/>
+      <c r="D16" s="394"/>
+      <c r="E16" s="394"/>
+      <c r="F16" s="395"/>
+      <c r="G16" s="390"/>
+      <c r="H16" s="391"/>
+      <c r="I16" s="392"/>
+      <c r="J16" s="390"/>
+      <c r="K16" s="391"/>
+      <c r="L16" s="391"/>
+      <c r="M16" s="391"/>
+      <c r="N16" s="391"/>
+      <c r="O16" s="391"/>
+      <c r="P16" s="392"/>
+      <c r="Q16" s="399"/>
+      <c r="R16" s="401"/>
+      <c r="S16" s="399"/>
+      <c r="T16" s="400"/>
+      <c r="U16" s="401"/>
+      <c r="V16" s="382"/>
+      <c r="W16" s="383"/>
+      <c r="X16" s="383"/>
+      <c r="Y16" s="383"/>
+      <c r="Z16" s="383"/>
+      <c r="AA16" s="383"/>
+      <c r="AB16" s="384"/>
+      <c r="AC16" s="422"/>
+      <c r="AD16" s="371"/>
+      <c r="AE16" s="372"/>
+      <c r="AF16" s="372"/>
+      <c r="AG16" s="373"/>
+      <c r="AH16" s="380"/>
+      <c r="AI16" s="381"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="196">
         <v>8</v>
       </c>
-      <c r="B17" s="417"/>
-      <c r="C17" s="418"/>
-      <c r="D17" s="418"/>
-      <c r="E17" s="418"/>
-      <c r="F17" s="419"/>
-      <c r="G17" s="362"/>
-      <c r="H17" s="363"/>
-      <c r="I17" s="364"/>
-      <c r="J17" s="362"/>
-      <c r="K17" s="363"/>
-      <c r="L17" s="363"/>
-      <c r="M17" s="363"/>
-      <c r="N17" s="363"/>
-      <c r="O17" s="363"/>
-      <c r="P17" s="364"/>
-      <c r="Q17" s="368"/>
-      <c r="R17" s="369"/>
-      <c r="S17" s="368"/>
-      <c r="T17" s="373"/>
-      <c r="U17" s="369"/>
-      <c r="V17" s="397"/>
-      <c r="W17" s="398"/>
-      <c r="X17" s="398"/>
-      <c r="Y17" s="398"/>
-      <c r="Z17" s="398"/>
-      <c r="AA17" s="398"/>
-      <c r="AB17" s="399"/>
-      <c r="AC17" s="426"/>
-      <c r="AD17" s="400"/>
-      <c r="AE17" s="401"/>
-      <c r="AF17" s="401"/>
-      <c r="AG17" s="402"/>
-      <c r="AH17" s="377"/>
-      <c r="AI17" s="378"/>
+      <c r="B17" s="393"/>
+      <c r="C17" s="394"/>
+      <c r="D17" s="394"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="395"/>
+      <c r="G17" s="390"/>
+      <c r="H17" s="391"/>
+      <c r="I17" s="392"/>
+      <c r="J17" s="390"/>
+      <c r="K17" s="391"/>
+      <c r="L17" s="391"/>
+      <c r="M17" s="391"/>
+      <c r="N17" s="391"/>
+      <c r="O17" s="391"/>
+      <c r="P17" s="392"/>
+      <c r="Q17" s="399"/>
+      <c r="R17" s="401"/>
+      <c r="S17" s="399"/>
+      <c r="T17" s="400"/>
+      <c r="U17" s="401"/>
+      <c r="V17" s="382"/>
+      <c r="W17" s="383"/>
+      <c r="X17" s="383"/>
+      <c r="Y17" s="383"/>
+      <c r="Z17" s="383"/>
+      <c r="AA17" s="383"/>
+      <c r="AB17" s="384"/>
+      <c r="AC17" s="422"/>
+      <c r="AD17" s="371"/>
+      <c r="AE17" s="372"/>
+      <c r="AF17" s="372"/>
+      <c r="AG17" s="373"/>
+      <c r="AH17" s="380"/>
+      <c r="AI17" s="381"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="197">
         <v>9</v>
       </c>
-      <c r="B18" s="420"/>
-      <c r="C18" s="421"/>
-      <c r="D18" s="421"/>
-      <c r="E18" s="421"/>
-      <c r="F18" s="422"/>
-      <c r="G18" s="414"/>
-      <c r="H18" s="415"/>
-      <c r="I18" s="416"/>
-      <c r="J18" s="414"/>
-      <c r="K18" s="415"/>
-      <c r="L18" s="415"/>
-      <c r="M18" s="415"/>
-      <c r="N18" s="415"/>
-      <c r="O18" s="415"/>
-      <c r="P18" s="416"/>
-      <c r="Q18" s="411"/>
-      <c r="R18" s="413"/>
-      <c r="S18" s="411"/>
-      <c r="T18" s="412"/>
-      <c r="U18" s="413"/>
-      <c r="V18" s="406"/>
-      <c r="W18" s="407"/>
-      <c r="X18" s="407"/>
-      <c r="Y18" s="407"/>
-      <c r="Z18" s="407"/>
-      <c r="AA18" s="407"/>
-      <c r="AB18" s="408"/>
-      <c r="AC18" s="427"/>
-      <c r="AD18" s="434"/>
-      <c r="AE18" s="435"/>
-      <c r="AF18" s="435"/>
-      <c r="AG18" s="436"/>
-      <c r="AH18" s="423"/>
-      <c r="AI18" s="424"/>
+      <c r="B18" s="416"/>
+      <c r="C18" s="417"/>
+      <c r="D18" s="417"/>
+      <c r="E18" s="417"/>
+      <c r="F18" s="418"/>
+      <c r="G18" s="413"/>
+      <c r="H18" s="414"/>
+      <c r="I18" s="415"/>
+      <c r="J18" s="413"/>
+      <c r="K18" s="414"/>
+      <c r="L18" s="414"/>
+      <c r="M18" s="414"/>
+      <c r="N18" s="414"/>
+      <c r="O18" s="414"/>
+      <c r="P18" s="415"/>
+      <c r="Q18" s="410"/>
+      <c r="R18" s="412"/>
+      <c r="S18" s="410"/>
+      <c r="T18" s="411"/>
+      <c r="U18" s="412"/>
+      <c r="V18" s="405"/>
+      <c r="W18" s="406"/>
+      <c r="X18" s="406"/>
+      <c r="Y18" s="406"/>
+      <c r="Z18" s="406"/>
+      <c r="AA18" s="406"/>
+      <c r="AB18" s="407"/>
+      <c r="AC18" s="423"/>
+      <c r="AD18" s="362"/>
+      <c r="AE18" s="363"/>
+      <c r="AF18" s="363"/>
+      <c r="AG18" s="364"/>
+      <c r="AH18" s="419"/>
+      <c r="AI18" s="420"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="409"/>
-      <c r="B19" s="410"/>
-      <c r="C19" s="410"/>
-      <c r="D19" s="410"/>
-      <c r="E19" s="410"/>
-      <c r="F19" s="410"/>
+      <c r="A19" s="408"/>
+      <c r="B19" s="409"/>
+      <c r="C19" s="409"/>
+      <c r="D19" s="409"/>
+      <c r="E19" s="409"/>
+      <c r="F19" s="409"/>
       <c r="G19" s="130"/>
       <c r="H19" s="130"/>
       <c r="I19" s="130"/>
@@ -12718,23 +12294,23 @@
       <c r="AA19" s="130"/>
       <c r="AB19" s="130"/>
       <c r="AC19" s="39"/>
-      <c r="AD19" s="405"/>
-      <c r="AE19" s="405"/>
-      <c r="AF19" s="405"/>
-      <c r="AG19" s="405"/>
-      <c r="AH19" s="405"/>
+      <c r="AD19" s="404"/>
+      <c r="AE19" s="404"/>
+      <c r="AF19" s="404"/>
+      <c r="AG19" s="404"/>
+      <c r="AH19" s="404"/>
       <c r="AI19" s="75"/>
       <c r="AJ19" s="34"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="403" t="s">
+      <c r="A20" s="402" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="404"/>
-      <c r="C20" s="404"/>
-      <c r="D20" s="404"/>
-      <c r="E20" s="404"/>
-      <c r="F20" s="404"/>
+      <c r="B20" s="403"/>
+      <c r="C20" s="403"/>
+      <c r="D20" s="403"/>
+      <c r="E20" s="403"/>
+      <c r="F20" s="403"/>
       <c r="G20" s="154"/>
       <c r="H20" s="155"/>
       <c r="I20" s="155"/>
@@ -13281,6 +12857,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A8:AB8"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
     <mergeCell ref="AD18:AG18"/>
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AD11:AG11"/>
@@ -13305,86 +12961,6 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A8:AB8"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations disablePrompts="1" count="2">
@@ -13401,12 +12977,11 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13424,158 +12999,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="249" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="314" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="359">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="323">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="360"/>
-      <c r="AI1" s="361"/>
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="325"/>
     </row>
     <row r="2" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="249" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="359" t="str">
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="360"/>
-      <c r="AI2" s="361"/>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="325"/>
     </row>
     <row r="3" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="249" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="359" t="str">
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="360"/>
-      <c r="AI3" s="361"/>
+      <c r="AH3" s="324"/>
+      <c r="AI3" s="325"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1"/>
     <row r="5" spans="1:96" ht="15" customHeight="1">
@@ -13621,60 +13196,60 @@
       <c r="A7" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="466" t="s">
+      <c r="B7" s="448" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="467"/>
-      <c r="D7" s="467"/>
-      <c r="E7" s="467"/>
-      <c r="F7" s="468"/>
-      <c r="G7" s="466" t="s">
+      <c r="C7" s="449"/>
+      <c r="D7" s="449"/>
+      <c r="E7" s="449"/>
+      <c r="F7" s="450"/>
+      <c r="G7" s="448" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="467"/>
-      <c r="I7" s="467"/>
-      <c r="J7" s="467"/>
-      <c r="K7" s="468"/>
-      <c r="L7" s="466" t="s">
+      <c r="H7" s="449"/>
+      <c r="I7" s="449"/>
+      <c r="J7" s="449"/>
+      <c r="K7" s="450"/>
+      <c r="L7" s="448" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="467"/>
-      <c r="N7" s="467"/>
-      <c r="O7" s="467"/>
-      <c r="P7" s="468"/>
+      <c r="M7" s="449"/>
+      <c r="N7" s="449"/>
+      <c r="O7" s="449"/>
+      <c r="P7" s="450"/>
       <c r="Q7" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="458" t="s">
+      <c r="R7" s="466" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="458"/>
-      <c r="T7" s="458"/>
-      <c r="U7" s="458"/>
-      <c r="V7" s="462" t="s">
+      <c r="S7" s="466"/>
+      <c r="T7" s="466"/>
+      <c r="U7" s="466"/>
+      <c r="V7" s="454" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="463"/>
-      <c r="X7" s="462" t="s">
+      <c r="W7" s="455"/>
+      <c r="X7" s="454" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="463"/>
-      <c r="Z7" s="466" t="s">
+      <c r="Y7" s="455"/>
+      <c r="Z7" s="448" t="s">
         <v>59</v>
       </c>
-      <c r="AA7" s="467"/>
-      <c r="AB7" s="468"/>
-      <c r="AC7" s="466" t="s">
+      <c r="AA7" s="449"/>
+      <c r="AB7" s="450"/>
+      <c r="AC7" s="448" t="s">
         <v>56</v>
       </c>
-      <c r="AD7" s="467"/>
-      <c r="AE7" s="467"/>
-      <c r="AF7" s="467"/>
-      <c r="AG7" s="467"/>
-      <c r="AH7" s="467"/>
-      <c r="AI7" s="467"/>
-      <c r="AJ7" s="467"/>
-      <c r="AK7" s="468"/>
+      <c r="AD7" s="449"/>
+      <c r="AE7" s="449"/>
+      <c r="AF7" s="449"/>
+      <c r="AG7" s="449"/>
+      <c r="AH7" s="449"/>
+      <c r="AI7" s="449"/>
+      <c r="AJ7" s="449"/>
+      <c r="AK7" s="450"/>
       <c r="AL7" s="75"/>
       <c r="AM7" s="75"/>
       <c r="AN7" s="75"/>
@@ -13734,46 +13309,46 @@
       <c r="A8" s="168">
         <v>1</v>
       </c>
-      <c r="B8" s="448" t="s">
+      <c r="B8" s="459" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="449"/>
-      <c r="D8" s="449"/>
-      <c r="E8" s="449"/>
-      <c r="F8" s="450"/>
-      <c r="G8" s="459" t="s">
+      <c r="C8" s="452"/>
+      <c r="D8" s="452"/>
+      <c r="E8" s="452"/>
+      <c r="F8" s="453"/>
+      <c r="G8" s="456" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="460"/>
-      <c r="I8" s="460"/>
-      <c r="J8" s="460"/>
-      <c r="K8" s="461"/>
-      <c r="L8" s="448"/>
-      <c r="M8" s="449"/>
-      <c r="N8" s="449"/>
-      <c r="O8" s="449"/>
-      <c r="P8" s="450"/>
+      <c r="H8" s="457"/>
+      <c r="I8" s="457"/>
+      <c r="J8" s="457"/>
+      <c r="K8" s="458"/>
+      <c r="L8" s="459"/>
+      <c r="M8" s="452"/>
+      <c r="N8" s="452"/>
+      <c r="O8" s="452"/>
+      <c r="P8" s="453"/>
       <c r="Q8" s="211"/>
       <c r="R8" s="451"/>
-      <c r="S8" s="449"/>
-      <c r="T8" s="449"/>
-      <c r="U8" s="450"/>
-      <c r="V8" s="452"/>
-      <c r="W8" s="453"/>
-      <c r="X8" s="464"/>
-      <c r="Y8" s="465"/>
+      <c r="S8" s="452"/>
+      <c r="T8" s="452"/>
+      <c r="U8" s="453"/>
+      <c r="V8" s="467"/>
+      <c r="W8" s="463"/>
+      <c r="X8" s="460"/>
+      <c r="Y8" s="461"/>
       <c r="Z8" s="451"/>
-      <c r="AA8" s="449"/>
-      <c r="AB8" s="450"/>
+      <c r="AA8" s="452"/>
+      <c r="AB8" s="453"/>
       <c r="AC8" s="451"/>
-      <c r="AD8" s="449"/>
-      <c r="AE8" s="449"/>
-      <c r="AF8" s="449"/>
-      <c r="AG8" s="449"/>
-      <c r="AH8" s="449"/>
-      <c r="AI8" s="449"/>
-      <c r="AJ8" s="449"/>
-      <c r="AK8" s="450"/>
+      <c r="AD8" s="452"/>
+      <c r="AE8" s="452"/>
+      <c r="AF8" s="452"/>
+      <c r="AG8" s="452"/>
+      <c r="AH8" s="452"/>
+      <c r="AI8" s="452"/>
+      <c r="AJ8" s="452"/>
+      <c r="AK8" s="453"/>
       <c r="AL8" s="240"/>
       <c r="AM8" s="240"/>
       <c r="AN8" s="240"/>
@@ -13832,54 +13407,54 @@
       <c r="A9" s="168">
         <v>2</v>
       </c>
-      <c r="B9" s="448" t="s">
+      <c r="B9" s="459" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="449"/>
-      <c r="D9" s="449"/>
-      <c r="E9" s="449"/>
-      <c r="F9" s="450"/>
-      <c r="G9" s="459" t="s">
+      <c r="C9" s="452"/>
+      <c r="D9" s="452"/>
+      <c r="E9" s="452"/>
+      <c r="F9" s="453"/>
+      <c r="G9" s="456" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="460"/>
-      <c r="I9" s="460"/>
-      <c r="J9" s="460"/>
-      <c r="K9" s="461"/>
-      <c r="L9" s="448" t="s">
+      <c r="H9" s="457"/>
+      <c r="I9" s="457"/>
+      <c r="J9" s="457"/>
+      <c r="K9" s="458"/>
+      <c r="L9" s="459" t="s">
         <v>99</v>
       </c>
-      <c r="M9" s="449"/>
-      <c r="N9" s="449"/>
-      <c r="O9" s="449"/>
-      <c r="P9" s="450"/>
+      <c r="M9" s="452"/>
+      <c r="N9" s="452"/>
+      <c r="O9" s="452"/>
+      <c r="P9" s="453"/>
       <c r="Q9" s="211" t="s">
         <v>84</v>
       </c>
       <c r="R9" s="451" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="449"/>
-      <c r="T9" s="449"/>
-      <c r="U9" s="450"/>
-      <c r="V9" s="472">
+      <c r="S9" s="452"/>
+      <c r="T9" s="452"/>
+      <c r="U9" s="453"/>
+      <c r="V9" s="462">
         <v>1</v>
       </c>
-      <c r="W9" s="453"/>
-      <c r="X9" s="464"/>
-      <c r="Y9" s="465"/>
+      <c r="W9" s="463"/>
+      <c r="X9" s="460"/>
+      <c r="Y9" s="461"/>
       <c r="Z9" s="451"/>
-      <c r="AA9" s="449"/>
-      <c r="AB9" s="450"/>
+      <c r="AA9" s="452"/>
+      <c r="AB9" s="453"/>
       <c r="AC9" s="451"/>
-      <c r="AD9" s="449"/>
-      <c r="AE9" s="449"/>
-      <c r="AF9" s="449"/>
-      <c r="AG9" s="449"/>
-      <c r="AH9" s="449"/>
-      <c r="AI9" s="449"/>
-      <c r="AJ9" s="449"/>
-      <c r="AK9" s="450"/>
+      <c r="AD9" s="452"/>
+      <c r="AE9" s="452"/>
+      <c r="AF9" s="452"/>
+      <c r="AG9" s="452"/>
+      <c r="AH9" s="452"/>
+      <c r="AI9" s="452"/>
+      <c r="AJ9" s="452"/>
+      <c r="AK9" s="453"/>
       <c r="AL9" s="202"/>
       <c r="AM9" s="202"/>
       <c r="AN9" s="202"/>
@@ -13938,54 +13513,54 @@
       <c r="A10" s="168">
         <v>3</v>
       </c>
-      <c r="B10" s="448" t="s">
+      <c r="B10" s="459" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="449"/>
-      <c r="D10" s="449"/>
-      <c r="E10" s="449"/>
-      <c r="F10" s="450"/>
-      <c r="G10" s="459" t="s">
+      <c r="C10" s="452"/>
+      <c r="D10" s="452"/>
+      <c r="E10" s="452"/>
+      <c r="F10" s="453"/>
+      <c r="G10" s="456" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="460"/>
-      <c r="I10" s="460"/>
-      <c r="J10" s="460"/>
-      <c r="K10" s="461"/>
-      <c r="L10" s="448" t="s">
+      <c r="H10" s="457"/>
+      <c r="I10" s="457"/>
+      <c r="J10" s="457"/>
+      <c r="K10" s="458"/>
+      <c r="L10" s="459" t="s">
         <v>100</v>
       </c>
-      <c r="M10" s="449"/>
-      <c r="N10" s="449"/>
-      <c r="O10" s="449"/>
-      <c r="P10" s="450"/>
+      <c r="M10" s="452"/>
+      <c r="N10" s="452"/>
+      <c r="O10" s="452"/>
+      <c r="P10" s="453"/>
       <c r="Q10" s="211" t="s">
         <v>84</v>
       </c>
       <c r="R10" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="449"/>
-      <c r="T10" s="449"/>
-      <c r="U10" s="450"/>
-      <c r="V10" s="472">
+      <c r="S10" s="452"/>
+      <c r="T10" s="452"/>
+      <c r="U10" s="453"/>
+      <c r="V10" s="462">
         <v>1</v>
       </c>
-      <c r="W10" s="453"/>
-      <c r="X10" s="469"/>
-      <c r="Y10" s="471"/>
+      <c r="W10" s="463"/>
+      <c r="X10" s="464"/>
+      <c r="Y10" s="465"/>
       <c r="Z10" s="451"/>
-      <c r="AA10" s="449"/>
-      <c r="AB10" s="450"/>
+      <c r="AA10" s="452"/>
+      <c r="AB10" s="453"/>
       <c r="AC10" s="451"/>
-      <c r="AD10" s="449"/>
-      <c r="AE10" s="449"/>
-      <c r="AF10" s="449"/>
-      <c r="AG10" s="449"/>
-      <c r="AH10" s="449"/>
-      <c r="AI10" s="449"/>
-      <c r="AJ10" s="449"/>
-      <c r="AK10" s="450"/>
+      <c r="AD10" s="452"/>
+      <c r="AE10" s="452"/>
+      <c r="AF10" s="452"/>
+      <c r="AG10" s="452"/>
+      <c r="AH10" s="452"/>
+      <c r="AI10" s="452"/>
+      <c r="AJ10" s="452"/>
+      <c r="AK10" s="453"/>
       <c r="AL10" s="202"/>
       <c r="AM10" s="202"/>
       <c r="AN10" s="202"/>
@@ -14044,40 +13619,40 @@
       <c r="A11" s="168">
         <v>4</v>
       </c>
-      <c r="B11" s="448" t="s">
+      <c r="B11" s="459" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="449"/>
-      <c r="D11" s="449"/>
-      <c r="E11" s="449"/>
-      <c r="F11" s="450"/>
-      <c r="G11" s="459" t="s">
+      <c r="C11" s="452"/>
+      <c r="D11" s="452"/>
+      <c r="E11" s="452"/>
+      <c r="F11" s="453"/>
+      <c r="G11" s="456" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="460"/>
-      <c r="I11" s="460"/>
-      <c r="J11" s="460"/>
-      <c r="K11" s="461"/>
-      <c r="L11" s="448" t="s">
+      <c r="H11" s="457"/>
+      <c r="I11" s="457"/>
+      <c r="J11" s="457"/>
+      <c r="K11" s="458"/>
+      <c r="L11" s="459" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="449"/>
-      <c r="N11" s="449"/>
-      <c r="O11" s="449"/>
-      <c r="P11" s="450"/>
+      <c r="M11" s="452"/>
+      <c r="N11" s="452"/>
+      <c r="O11" s="452"/>
+      <c r="P11" s="453"/>
       <c r="Q11" s="211" t="s">
         <v>84</v>
       </c>
       <c r="R11" s="451" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="449"/>
-      <c r="T11" s="449"/>
-      <c r="U11" s="450"/>
-      <c r="V11" s="472">
+      <c r="S11" s="452"/>
+      <c r="T11" s="452"/>
+      <c r="U11" s="453"/>
+      <c r="V11" s="462">
         <v>1</v>
       </c>
-      <c r="W11" s="453"/>
+      <c r="W11" s="463"/>
       <c r="X11" s="212"/>
       <c r="Y11" s="213"/>
       <c r="Z11" s="62"/>
@@ -14149,27 +13724,27 @@
     <row r="12" spans="1:96" ht="15" customHeight="1">
       <c r="A12" s="168"/>
       <c r="B12" s="451"/>
-      <c r="C12" s="449"/>
-      <c r="D12" s="449"/>
-      <c r="E12" s="449"/>
-      <c r="F12" s="450"/>
-      <c r="G12" s="469"/>
-      <c r="H12" s="470"/>
-      <c r="I12" s="470"/>
-      <c r="J12" s="470"/>
-      <c r="K12" s="471"/>
-      <c r="L12" s="469"/>
-      <c r="M12" s="470"/>
-      <c r="N12" s="470"/>
-      <c r="O12" s="470"/>
-      <c r="P12" s="471"/>
+      <c r="C12" s="452"/>
+      <c r="D12" s="452"/>
+      <c r="E12" s="452"/>
+      <c r="F12" s="453"/>
+      <c r="G12" s="464"/>
+      <c r="H12" s="472"/>
+      <c r="I12" s="472"/>
+      <c r="J12" s="472"/>
+      <c r="K12" s="465"/>
+      <c r="L12" s="464"/>
+      <c r="M12" s="472"/>
+      <c r="N12" s="472"/>
+      <c r="O12" s="472"/>
+      <c r="P12" s="465"/>
       <c r="Q12" s="211"/>
       <c r="R12" s="451"/>
-      <c r="S12" s="449"/>
-      <c r="T12" s="449"/>
-      <c r="U12" s="450"/>
-      <c r="V12" s="472"/>
-      <c r="W12" s="453"/>
+      <c r="S12" s="452"/>
+      <c r="T12" s="452"/>
+      <c r="U12" s="453"/>
+      <c r="V12" s="462"/>
+      <c r="W12" s="463"/>
       <c r="X12" s="212"/>
       <c r="Y12" s="213"/>
       <c r="Z12" s="62"/>
@@ -14443,47 +14018,47 @@
       <c r="CR16" s="82"/>
     </row>
     <row r="17" spans="1:96" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="454" t="s">
+      <c r="A17" s="468" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="454"/>
-      <c r="C17" s="454"/>
-      <c r="D17" s="454"/>
-      <c r="E17" s="454"/>
-      <c r="F17" s="454"/>
-      <c r="G17" s="454"/>
-      <c r="H17" s="454"/>
-      <c r="I17" s="454"/>
-      <c r="J17" s="454"/>
-      <c r="K17" s="454"/>
-      <c r="L17" s="454"/>
-      <c r="M17" s="454"/>
-      <c r="N17" s="454"/>
-      <c r="O17" s="454"/>
-      <c r="P17" s="454"/>
-      <c r="Q17" s="454"/>
-      <c r="R17" s="454"/>
-      <c r="S17" s="454"/>
-      <c r="T17" s="454"/>
-      <c r="U17" s="454"/>
-      <c r="V17" s="454"/>
-      <c r="W17" s="454"/>
-      <c r="X17" s="454"/>
-      <c r="Y17" s="455" t="s">
+      <c r="B17" s="468"/>
+      <c r="C17" s="468"/>
+      <c r="D17" s="468"/>
+      <c r="E17" s="468"/>
+      <c r="F17" s="468"/>
+      <c r="G17" s="468"/>
+      <c r="H17" s="468"/>
+      <c r="I17" s="468"/>
+      <c r="J17" s="468"/>
+      <c r="K17" s="468"/>
+      <c r="L17" s="468"/>
+      <c r="M17" s="468"/>
+      <c r="N17" s="468"/>
+      <c r="O17" s="468"/>
+      <c r="P17" s="468"/>
+      <c r="Q17" s="468"/>
+      <c r="R17" s="468"/>
+      <c r="S17" s="468"/>
+      <c r="T17" s="468"/>
+      <c r="U17" s="468"/>
+      <c r="V17" s="468"/>
+      <c r="W17" s="468"/>
+      <c r="X17" s="468"/>
+      <c r="Y17" s="469" t="s">
         <v>79</v>
       </c>
-      <c r="Z17" s="456"/>
-      <c r="AA17" s="456"/>
-      <c r="AB17" s="456"/>
-      <c r="AC17" s="456"/>
-      <c r="AD17" s="456"/>
-      <c r="AE17" s="456"/>
-      <c r="AF17" s="456"/>
-      <c r="AG17" s="456"/>
-      <c r="AH17" s="456"/>
-      <c r="AI17" s="456"/>
-      <c r="AJ17" s="456"/>
-      <c r="AK17" s="457"/>
+      <c r="Z17" s="470"/>
+      <c r="AA17" s="470"/>
+      <c r="AB17" s="470"/>
+      <c r="AC17" s="470"/>
+      <c r="AD17" s="470"/>
+      <c r="AE17" s="470"/>
+      <c r="AF17" s="470"/>
+      <c r="AG17" s="470"/>
+      <c r="AH17" s="470"/>
+      <c r="AI17" s="470"/>
+      <c r="AJ17" s="470"/>
+      <c r="AK17" s="471"/>
     </row>
     <row r="18" spans="1:96" ht="15" customHeight="1">
       <c r="A18" s="223"/>
@@ -15130,31 +14705,25 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="A17:X17"/>
+    <mergeCell ref="Y17:AK17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="G10:K10"/>
@@ -15171,26 +14740,32 @@
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="G8:K8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="A17:X17"/>
-    <mergeCell ref="Y17:AK17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="AC7:AK7"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z7:AB7"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <dataValidations count="2">
@@ -15211,7 +14786,6 @@
     <brk id="15" max="37" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
